--- a/reverseprimer-v3_14.xlsx
+++ b/reverseprimer-v3_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_14" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1249-CGTGATGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGATGATGGTCTCGTGGGCTCGG</t>
+    <t>R1249-GTGCTCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCTCTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1250-GGAAGATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGATCGTGTCTCGTGGGCTCGG</t>
+    <t>R1250-CACGTACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGTACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1251-AGATCGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCGACGAGTCTCGTGGGCTCGG</t>
+    <t>R1251-AAGCATCGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCATCGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1252-ACTCCTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCTGTTCGTCTCGTGGGCTCGG</t>
+    <t>R1252-AGTACAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1253-GACAGTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGTCATGGTCTCGTGGGCTCGG</t>
+    <t>R1253-TAGCTAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1254-GGAAGGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGGATCTGTCTCGTGGGCTCGG</t>
+    <t>R1254-AACGTGTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTGTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1255-CAACTAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R1255-ATGGATCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGATCTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1256-TGCTGTTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTGTTGGAGTCTCGTGGGCTCGG</t>
+    <t>R1256-ACACAGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAGAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1257-TGCTAGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGACTAGTCTCGTGGGCTCGG</t>
+    <t>R1257-TGTGTTGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTTGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1258-CCTGATCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGATCTCAGTCTCGTGGGCTCGG</t>
+    <t>R1258-ACTCGATGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCGATGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1259-GAGAGACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGACTGAGTCTCGTGGGCTCGG</t>
+    <t>R1259-CTGTCGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTCGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1260-GATCTCAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTCAGGTGTCTCGTGGGCTCGG</t>
+    <t>R1260-ACACAGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAGACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1261-TTGGAGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGGATCGTCTCGTGGGCTCGG</t>
+    <t>R1261-AGACATCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACATCAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1262-ACAGACTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGACTACTGTCTCGTGGGCTCGG</t>
+    <t>R1262-GGTGCAACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGCAACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1263-AGACTTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R1263-GTAGACAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGACAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1264-ATCCACAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCACAACTGTCTCGTGGGCTCGG</t>
+    <t>R1264-CTAGGACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGGACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1265-AAGTGGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGGATCGGTCTCGTGGGCTCGG</t>
+    <t>R1265-CACAGGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAGGTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1266-ACAACTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACTGTAGGTCTCGTGGGCTCGG</t>
+    <t>R1266-ATCCATCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCATCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1267-TCCTTCGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCGATGGTCTCGTGGGCTCGG</t>
+    <t>R1267-TGATCAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCAGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R1268-TCAGTGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGACAGGTCTCGTGGGCTCGG</t>
+    <t>R1268-TCTAGAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R1269-GTCGTCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGTCAGTAGTCTCGTGGGCTCGG</t>
+    <t>R1269-GACATGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACATGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R1270-TCACAGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACAGTCATGTCTCGTGGGCTCGG</t>
+    <t>R1270-ACGTACTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTACTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R1271-AGTTGCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGCATCGGTCTCGTGGGCTCGG</t>
+    <t>R1271-GAACCAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCAGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R1272-CAGAGACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGACATGGTCTCGTGGGCTCGG</t>
+    <t>R1272-TGACACATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACACATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R1273-ATCAGCAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGCAAGCGTCTCGTGGGCTCGG</t>
+    <t>R1273-TACTGCTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGCTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R1274-TCTCACTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCACTGACGTCTCGTGGGCTCGG</t>
+    <t>R1274-TTCTACGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTACGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R1275-TGGTGGTTCA</t>
+    <t>R1275-AAGTCCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCCAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R1276-AGTTCGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCGAAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R1277-GAAGAGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R1278-AACTGGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGGAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1279-ACAAGTCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGTCTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1280-ATCGATCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGATCCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1281-GTAGTGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGATGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1282-AAGAACGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAACGTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R1283-ATCTCGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCGTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R1284-ACTACACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACACAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R1285-GAACAACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAACACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R1286-CAGAGAAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAGAAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R1287-GCATGAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGAAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R1288-TCTACCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACCAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R1289-TTCCACCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCACCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1290-TGTGTACTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTACTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1291-ACCTGATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTGATCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R1292-GTTGGATGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGGATGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R1293-TCCTTCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R1294-TACCATGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCATGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R1295-TGACGAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACGAGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R1296-GTCTCATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTCATGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R1297-ATGCTGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTGCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R1298-CAGTGCTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTGCTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1299-CTACCTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCTCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1300-ACCACTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACTCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1301-CGAAGCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGCTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1302-GCAGACAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGACAGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1303-TCACAGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAGAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1304-ACTGTGGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTGGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1305-GAGTGACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGACTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1306-CCACTTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACTTGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1307-TTCCTCAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1308-ATGAACCACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAACCACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1309-AAGTTGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTTGGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1310-ATGATCGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGATCGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R1311-TGTCAAGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCAAGGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R1312-GTGACCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACCTTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R1313-CGATGAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATGAAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1314-CATGCTCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGCTCGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R1315-GAACTTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTTCGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R1316-GTTGTTCGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTTCGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R1317-GAGTTCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R1318-TACGATCCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGATCCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R1319-ATGAGGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGGATGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R1320-CTACTTGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTTGAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R1321-TCACCTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCTGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R1322-ACCAGACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAGACCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R1323-TTCGTTGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTTGAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R1324-ATCGTCTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTCTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R1325-ATGTTGCAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTTGCAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R1326-CATGTTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTTCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R1327-CATCGAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGAGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R1328-GAGAGTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R1329-GTCACCATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACCATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R1330-CTGGTAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGGTAGGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R1331-GCTTGATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGATGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R1332-ACTGTCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTCAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R1333-ACGTACCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTACCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R1334-ATGACGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACGTTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R1335-TGGTGGTTCA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTGGTGGTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R1276-AAGACCTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACCTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R1277-TTCGAGACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGAGACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R1278-GATGCAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCAGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1279-AGCAGGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGGATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1280-ATCATCTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCATCTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1281-TCATGCACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGCACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R1282-AACTCATCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCATCCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R1283-CTTCGTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCGTAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R1284-TGACACTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACACTTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R1285-AGCTCTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTCTGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R1286-TTGAGTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGTGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R1287-ATGAAGAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAAGAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R1288-ACTGTCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTCAAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R1289-GCATCTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCTGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1290-AACACACTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACACTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1291-CAACAGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAGCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R1292-TCACTGCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTGCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R1293-AGTCAACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAACCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R1294-GTAGATGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGATGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R1295-ATCGTGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTGGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R1296-GTTGCATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGCATCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R1297-GCATCAACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCAACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R1298-GTCATGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATGGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1299-GCTCCTTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCCTTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1300-AGGACAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACAAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1301-TCCAACAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAACAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1302-ATCGAACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAACACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1303-ACGACACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGACACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1304-TCCATCCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATCCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1305-CAAGGTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGGTTGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1306-AGCTCGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTCGAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1307-TCTCAAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1308-AACCAGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAGTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1309-GCTACTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACTGACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1310-GACTGCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGCTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R1311-CTGGTGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGGTGTACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R1312-CCTTCGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCGACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R1313-AACCACTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCACTTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R1314-TCTTGTCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGTCGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R1315-TGTCAGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCAGATGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R1316-CTACGAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGAGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R1317-GAACCTACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R1318-ACCAGTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAGTAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R1319-AACCTCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTCAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R1320-AACCAAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R1321-TAGACGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACGTAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1322-TTGCTAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R1323-AGTCCATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCCATCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R1324-AAGGACTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGACTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R1325-TGTTCGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCGTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R1326-TCAGAAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAAGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R1327-AACACTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACTCCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R1328-CTAGCTTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCTTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R1329-GAACGTTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGTTGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R1330-AGGTTGCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTGCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R1331-TGAACACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACACAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R1332-ATCCTTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTTGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R1333-AGTCATGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCATGGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R1334-CGTAGGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTAGGTTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R1335-TCCTGTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTGGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1336-ACAAGGTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGGTGCAGTCTCGTGGGCTCGG</t>
+    <t>R1336-TACGTCAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTCAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1337-GATGAGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAGACTAGTCTCGTGGGCTCGG</t>
+    <t>R1337-GGAACAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1338-CAGGTGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGTGACTAGTCTCGTGGGCTCGG</t>
+    <t>R1338-AGACACGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACACGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1339-ATGAAGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAAGTGCTGTCTCGTGGGCTCGG</t>
+    <t>R1339-GAGTACCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTACCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1340-AGAGGAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGGAACAGGTCTCGTGGGCTCGG</t>
+    <t>R1340-CTTCGAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCGAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1341-TCTAGTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGTCGTAGTCTCGTGGGCTCGG</t>
+    <t>R1341-GAACTGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTGTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1342-ACAGACGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGACGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1342-TCTCAACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1343-AGGTACACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTACACGAGTCTCGTGGGCTCGG</t>
+    <t>R1343-TGGATCTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGATCTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1344-AGTGTGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTGTGTGGTCTCGTGGGCTCGG</t>
+    <t>R1344-TTGAAGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAAGTCCAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
